--- a/data/Defect_Data.xlsx
+++ b/data/Defect_Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10118"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangc/projects/SHIELDS/BAHAMAS/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangc/projects/BAHAMAS/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3446A09D-9254-BB4C-BF25-7A11D9E9C8F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4892D0-5EAA-1948-9E76-45303CBDC91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="740" yWindow="3180" windowWidth="30240" windowHeight="17400" xr2:uid="{E9A8337F-8BFF-E542-8209-0C49E6F68721}"/>
+    <workbookView xWindow="-37140" yWindow="2800" windowWidth="30240" windowHeight="17400" activeTab="2" xr2:uid="{E9A8337F-8BFF-E542-8209-0C49E6F68721}"/>
   </bookViews>
   <sheets>
     <sheet name="ODC" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="121">
   <si>
     <t>Testing</t>
   </si>
@@ -399,13 +399,16 @@
   </si>
   <si>
     <t>Stages</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -424,6 +427,11 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos"/>
     </font>
   </fonts>
   <fills count="2">
@@ -446,10 +454,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -786,7 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B0DBE9-AE32-8D4B-A2B3-10C67B4F164D}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1319,10 +1330,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B8F7B4-3DB1-CA4B-8A31-610401AC486C}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21:J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1330,7 +1341,7 @@
     <col min="2" max="2" width="53" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>113</v>
       </c>
@@ -1343,8 +1354,11 @@
       <c r="D1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>109</v>
       </c>
@@ -1357,8 +1371,11 @@
       <c r="D2" s="2">
         <v>2.0676000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E2" s="3">
+        <v>8.4800000000000001E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>107</v>
       </c>
@@ -1371,8 +1388,11 @@
       <c r="D3" s="2">
         <v>2.0676000000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E3" s="3">
+        <v>8.4800000000000001E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>105</v>
       </c>
@@ -1385,8 +1405,11 @@
       <c r="D4" s="2">
         <v>0.97838199999999997</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E4" s="3">
+        <v>4.8399999999999997E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>47</v>
       </c>
@@ -1399,8 +1422,11 @@
       <c r="D5" s="2">
         <v>0.97838199999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>4.8399999999999997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>102</v>
       </c>
@@ -1413,8 +1439,11 @@
       <c r="D6" s="2">
         <v>0.97838199999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E6" s="3">
+        <v>9.6799999999999994E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>100</v>
       </c>
@@ -1427,8 +1456,11 @@
       <c r="D7" s="2">
         <v>0.94216999999999995</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <v>5.5799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>98</v>
       </c>
@@ -1441,8 +1473,11 @@
       <c r="D8" s="2">
         <v>0.94216999999999995</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="3">
+        <v>5.5799999999999999E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>96</v>
       </c>
@@ -1455,8 +1490,11 @@
       <c r="D9" s="2">
         <v>0.94289599999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E9" s="3">
+        <v>1.04E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>94</v>
       </c>
@@ -1469,8 +1507,11 @@
       <c r="D10" s="2">
         <v>0.96027099999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E10" s="3">
+        <v>4.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>92</v>
       </c>
@@ -1483,8 +1524,11 @@
       <c r="D11" s="2">
         <v>0.96027099999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E11" s="3">
+        <v>4.9100000000000003E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>90</v>
       </c>
@@ -1496,6 +1540,9 @@
       </c>
       <c r="D12" s="2">
         <v>0.96677599999999997</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9.7400000000000004E-3</v>
       </c>
     </row>
   </sheetData>
